--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_WorkflowES/1.0/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_WorkflowES/1.0/accreditamento-checklist_V8.2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_WorkflowES_RSA\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC47EE-8641-4B0C-B9F5-8DC8FEA7EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF3555B-B400-4402-B857-20A24EA41C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="195">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -707,12 +707,6 @@
     <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS,RAD,RAP i relativi casi di test con id 444, 446, 417,418,460 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
   </si>
   <si>
-    <t>2024-12-10T14:40:53.706Z[UTC]</t>
-  </si>
-  <si>
-    <t>f2e7b8b26aa3c498</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -722,18 +716,6 @@
     <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il sistema sottopone nuovamente la richiesta di validazione a FSE</t>
   </si>
   <si>
-    <t>2024-12-10T14:41:06.087Z[UTC]</t>
-  </si>
-  <si>
-    <t>4f9089333fdd74d6</t>
-  </si>
-  <si>
-    <t>2024-12-10T14:41:07.048Z[UTC]</t>
-  </si>
-  <si>
-    <t>b3619f2af2cb9a18</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.6b34442720^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -746,12 +728,6 @@
     <t>Il test non è applicabile in quanto l'applicativo prevede la presenza oggligatoria di un confidentialitycode e se necessario lo valorizza con un valore di Default.</t>
   </si>
   <si>
-    <t>2024-12-10T14:40:55.784Z[UTC]</t>
-  </si>
-  <si>
-    <t>f41dffc61a9f5339</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.be50683bd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -761,63 +737,27 @@
     <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il medico riceve una notifica automatica che riporta il problema risolto e lo invita a creare e firmare un addendum.</t>
   </si>
   <si>
-    <t>2024-12-10T14:40:57.891Z[UTC]</t>
-  </si>
-  <si>
-    <t>ec11df2557a2c24a</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.4a8f5e33e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Vengono inseriti nel CDA solo gli indirizzi che hanno tutti I campi obbligatori valorizzati. </t>
   </si>
   <si>
-    <t>2024-12-10T14:40:59.38Z[UTC]</t>
-  </si>
-  <si>
-    <t>f0d43bea871c003a</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.183f314d38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-12-10T14:41:00.935Z[UTC]</t>
-  </si>
-  <si>
-    <t>866c8fefb1c587f9</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.41079f7d6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
-    <t>2024-12-10T14:41:02.221Z[UTC]</t>
-  </si>
-  <si>
-    <t>7ae8a0fb766b431d</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.2907b31138^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-12-10T14:41:03.518Z[UTC]</t>
-  </si>
-  <si>
-    <t>4df5dc4512b8000b</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.0029f585ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-12-10T14:41:04.749Z[UTC]</t>
-  </si>
-  <si>
-    <t>8dfb0cb9d7dc56fc</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.9f5a16429e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -839,9 +779,6 @@
     <t>Il test non è applicabile in quanto i signature codes nell'applicativo sono codificati in una enumeration e non posso essere inseriti codici diversi da quelli prestabiliti.</t>
   </si>
   <si>
-    <t>altro(specificare)</t>
-  </si>
-  <si>
     <t>Il test non è applicabile perche l'applicativo valorizza sempre alcune entry non obbligatorie, tipo: ClinicalDocument/component/structuredBody/component/section[@ID=Prestazioni]/title</t>
   </si>
   <si>
@@ -852,6 +789,66 @@
   </si>
   <si>
     <t>subject_application_version: 1.0</t>
+  </si>
+  <si>
+    <t>181141f4b494962c</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:41.358Z[UTC]</t>
+  </si>
+  <si>
+    <t>0be639588cff1ec3</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:55.518Z[UTC]</t>
+  </si>
+  <si>
+    <t>08bc147c3b760825</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:56.499Z[UTC]</t>
+  </si>
+  <si>
+    <t>f84644ed044d28b6</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:43.238Z[UTC]</t>
+  </si>
+  <si>
+    <t>0bd0e3b2ddf4ff50</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:45.244Z[UTC]</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:47.026Z[UTC]</t>
+  </si>
+  <si>
+    <t>af8b6f6ecd07011f</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:49.045Z[UTC]</t>
+  </si>
+  <si>
+    <t>6ef0760aeca7007f</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:50.776Z[UTC]</t>
+  </si>
+  <si>
+    <t>f8db4ce42373e3d0</t>
+  </si>
+  <si>
+    <t>795ca13a20b31ffb</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:52.398Z[UTC]</t>
+  </si>
+  <si>
+    <t>2025-02-03T12:25:53.977Z[UTC]</t>
+  </si>
+  <si>
+    <t>8466f1896f02a596</t>
   </si>
 </sst>
 </file>
@@ -1478,6 +1475,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,9 +1499,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1800,7 +1797,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,10 +2945,10 @@
   <dimension ref="A1:W569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2993,12 +2990,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3019,14 +3016,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="45"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3047,12 +3044,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="44"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="45"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3074,12 +3071,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="45"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3100,8 +3097,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3253,16 +3250,16 @@
         <v>42</v>
       </c>
       <c r="F10" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>49</v>
@@ -3276,19 +3273,19 @@
         <v>49</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="41" t="s">
         <v>49</v>
       </c>
       <c r="R10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="53" t="s">
-        <v>151</v>
+      <c r="S10" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
@@ -3314,16 +3311,16 @@
         <v>47</v>
       </c>
       <c r="F11" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>49</v>
@@ -3337,7 +3334,7 @@
         <v>49</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>49</v>
@@ -3348,8 +3345,8 @@
       <c r="R11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="53" t="s">
-        <v>151</v>
+      <c r="S11" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
@@ -3375,7 +3372,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -3391,8 +3388,8 @@
       <c r="N12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="53" t="s">
-        <v>150</v>
+      <c r="O12" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>49</v>
@@ -3403,8 +3400,8 @@
       <c r="R12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="53" t="s">
-        <v>151</v>
+      <c r="S12" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
@@ -3432,16 +3429,16 @@
         <v>131</v>
       </c>
       <c r="F13" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>49</v>
@@ -3454,8 +3451,8 @@
       <c r="N13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="53" t="s">
-        <v>150</v>
+      <c r="O13" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>49</v>
@@ -3466,8 +3463,8 @@
       <c r="R13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="53" t="s">
-        <v>151</v>
+      <c r="S13" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -3500,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
@@ -3543,10 +3540,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
@@ -3586,10 +3583,10 @@
         <v>100</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="53" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
@@ -3629,10 +3626,10 @@
         <v>100</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="53" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
@@ -3665,16 +3662,16 @@
         <v>135</v>
       </c>
       <c r="F18" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>49</v>
@@ -3687,8 +3684,8 @@
       <c r="N18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="53" t="s">
-        <v>163</v>
+      <c r="O18" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P18" s="34" t="s">
         <v>49</v>
@@ -3699,8 +3696,8 @@
       <c r="R18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="53" t="s">
-        <v>164</v>
+      <c r="S18" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
@@ -3726,16 +3723,16 @@
         <v>136</v>
       </c>
       <c r="F19" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>49</v>
@@ -3748,8 +3745,8 @@
       <c r="N19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="53" t="s">
-        <v>163</v>
+      <c r="O19" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P19" s="34" t="s">
         <v>49</v>
@@ -3760,8 +3757,8 @@
       <c r="R19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="53" t="s">
-        <v>164</v>
+      <c r="S19" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -3794,10 +3791,10 @@
         <v>100</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
@@ -3830,16 +3827,16 @@
         <v>138</v>
       </c>
       <c r="F21" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>49</v>
@@ -3852,8 +3849,8 @@
       <c r="N21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="53" t="s">
-        <v>163</v>
+      <c r="O21" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>49</v>
@@ -3864,8 +3861,8 @@
       <c r="R21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="53" t="s">
-        <v>164</v>
+      <c r="S21" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
@@ -3891,16 +3888,16 @@
         <v>139</v>
       </c>
       <c r="F22" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>49</v>
@@ -3913,8 +3910,8 @@
       <c r="N22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="53" t="s">
-        <v>163</v>
+      <c r="O22" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>49</v>
@@ -3925,8 +3922,8 @@
       <c r="R22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S22" s="53" t="s">
-        <v>164</v>
+      <c r="S22" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -3959,7 +3956,7 @@
         <v>100</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -3993,16 +3990,16 @@
         <v>141</v>
       </c>
       <c r="F24" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J24" s="34" t="s">
         <v>49</v>
@@ -4015,8 +4012,8 @@
       <c r="N24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="53" t="s">
-        <v>163</v>
+      <c r="O24" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P24" s="34" t="s">
         <v>49</v>
@@ -4027,8 +4024,8 @@
       <c r="R24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="53" t="s">
-        <v>164</v>
+      <c r="S24" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
@@ -4054,16 +4051,16 @@
         <v>65</v>
       </c>
       <c r="F25" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>49</v>
@@ -4076,8 +4073,8 @@
       <c r="N25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="53" t="s">
-        <v>163</v>
+      <c r="O25" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P25" s="34" t="s">
         <v>49</v>
@@ -4088,8 +4085,8 @@
       <c r="R25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S25" s="53" t="s">
-        <v>164</v>
+      <c r="S25" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T25" s="34"/>
       <c r="U25" s="35"/>
@@ -4115,16 +4112,16 @@
         <v>67</v>
       </c>
       <c r="F26" s="32">
-        <v>45636</v>
+        <v>45353</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>49</v>
@@ -4137,8 +4134,8 @@
       <c r="N26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="53" t="s">
-        <v>163</v>
+      <c r="O26" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="P26" s="34" t="s">
         <v>49</v>
@@ -4149,8 +4146,8 @@
       <c r="R26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="53" t="s">
-        <v>164</v>
+      <c r="S26" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="T26" s="34"/>
       <c r="U26" s="35"/>
@@ -4183,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
@@ -4226,10 +4223,10 @@
         <v>100</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>186</v>
+        <v>151</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
@@ -4269,10 +4266,10 @@
         <v>100</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="53" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
@@ -4312,10 +4309,10 @@
         <v>100</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L30" s="53" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
@@ -4355,10 +4352,10 @@
         <v>100</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L31" s="53" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
@@ -4398,10 +4395,10 @@
         <v>100</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L32" s="53" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
@@ -4441,10 +4438,10 @@
         <v>100</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="53" t="s">
-        <v>188</v>
+        <v>151</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
@@ -4484,10 +4481,10 @@
         <v>100</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L34" s="53" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
@@ -4527,10 +4524,10 @@
         <v>100</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L35" s="53" t="s">
-        <v>190</v>
+        <v>151</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
@@ -4570,10 +4567,10 @@
         <v>100</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
@@ -10417,6 +10414,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10425,7 +10434,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10683,19 +10692,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10703,7 +10717,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10720,21 +10734,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>